--- a/lib/tasks/courses.xlsx
+++ b/lib/tasks/courses.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="141">
   <si>
     <t>name</t>
   </si>
@@ -438,6 +438,15 @@
   </si>
   <si>
     <t>12</t>
+  </si>
+  <si>
+    <t>MSENGT03</t>
+  </si>
+  <si>
+    <t>MSENGT02</t>
+  </si>
+  <si>
+    <t>HSENGT01</t>
   </si>
 </sst>
 </file>
@@ -473,8 +482,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -755,10 +766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H125"/>
+  <dimension ref="A1:H128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F111" sqref="F111"/>
+    <sheetView tabSelected="1" topLeftCell="A107" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E129" sqref="E129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,7 +777,7 @@
     <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -785,7 +796,7 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
@@ -805,7 +816,7 @@
       <c r="C2" t="s">
         <v>77</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>132</v>
       </c>
       <c r="F2">
@@ -819,7 +830,7 @@
       <c r="C3" t="s">
         <v>112</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>132</v>
       </c>
       <c r="F3">
@@ -833,7 +844,7 @@
       <c r="C4" t="s">
         <v>113</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>132</v>
       </c>
       <c r="F4">
@@ -847,7 +858,7 @@
       <c r="C5" t="s">
         <v>80</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>132</v>
       </c>
       <c r="F5">
@@ -861,7 +872,7 @@
       <c r="C6" t="s">
         <v>105</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>132</v>
       </c>
       <c r="F6">
@@ -875,7 +886,7 @@
       <c r="C7" t="s">
         <v>123</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>132</v>
       </c>
       <c r="F7">
@@ -889,7 +900,7 @@
       <c r="C8" t="s">
         <v>127</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>132</v>
       </c>
       <c r="F8">
@@ -903,7 +914,7 @@
       <c r="C9" t="s">
         <v>106</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>132</v>
       </c>
       <c r="F9">
@@ -917,7 +928,7 @@
       <c r="C10" t="s">
         <v>114</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>132</v>
       </c>
       <c r="F10">
@@ -931,7 +942,7 @@
       <c r="C11" t="s">
         <v>115</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>132</v>
       </c>
       <c r="F11">
@@ -945,7 +956,7 @@
       <c r="C12" t="s">
         <v>78</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
         <v>132</v>
       </c>
       <c r="F12">
@@ -959,7 +970,7 @@
       <c r="C13" t="s">
         <v>121</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
         <v>132</v>
       </c>
       <c r="F13">
@@ -973,7 +984,7 @@
       <c r="C14" t="s">
         <v>124</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="1" t="s">
         <v>132</v>
       </c>
       <c r="F14">
@@ -987,7 +998,7 @@
       <c r="C15" t="s">
         <v>18</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="1" t="s">
         <v>133</v>
       </c>
       <c r="F15">
@@ -1001,7 +1012,7 @@
       <c r="C16" t="s">
         <v>15</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="1" t="s">
         <v>133</v>
       </c>
       <c r="F16">
@@ -1015,7 +1026,7 @@
       <c r="C17" t="s">
         <v>116</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="1" t="s">
         <v>133</v>
       </c>
       <c r="F17">
@@ -1029,7 +1040,7 @@
       <c r="C18" t="s">
         <v>13</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="1" t="s">
         <v>133</v>
       </c>
       <c r="F18">
@@ -1043,7 +1054,7 @@
       <c r="C19" t="s">
         <v>11</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="1" t="s">
         <v>133</v>
       </c>
       <c r="F19">
@@ -1057,7 +1068,7 @@
       <c r="C20" t="s">
         <v>9</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="1" t="s">
         <v>133</v>
       </c>
       <c r="F20">
@@ -1071,7 +1082,7 @@
       <c r="C21" t="s">
         <v>107</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="1" t="s">
         <v>133</v>
       </c>
       <c r="F21">
@@ -1085,7 +1096,7 @@
       <c r="C22" t="s">
         <v>16</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="1" t="s">
         <v>133</v>
       </c>
       <c r="F22">
@@ -1099,7 +1110,7 @@
       <c r="C23" t="s">
         <v>117</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="1" t="s">
         <v>133</v>
       </c>
       <c r="F23">
@@ -1113,7 +1124,7 @@
       <c r="C24" t="s">
         <v>12</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="1" t="s">
         <v>133</v>
       </c>
       <c r="F24">
@@ -1127,7 +1138,7 @@
       <c r="C25" t="s">
         <v>8</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="1" t="s">
         <v>133</v>
       </c>
       <c r="F25">
@@ -1141,7 +1152,7 @@
       <c r="C26" t="s">
         <v>14</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="1" t="s">
         <v>133</v>
       </c>
       <c r="F26">
@@ -1150,13 +1161,13 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" t="s">
-        <v>134</v>
+        <v>17</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="F27">
         <v>17</v>
@@ -1164,13 +1175,13 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>26</v>
+        <v>139</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" t="s">
-        <v>134</v>
+        <v>139</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="F28">
         <v>17</v>
@@ -1178,12 +1189,12 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>118</v>
+        <v>20</v>
       </c>
       <c r="C29" t="s">
-        <v>118</v>
-      </c>
-      <c r="E29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>134</v>
       </c>
       <c r="F29">
@@ -1192,12 +1203,12 @@
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>134</v>
       </c>
       <c r="F30">
@@ -1206,12 +1217,12 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="C31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31" t="s">
+        <v>118</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>134</v>
       </c>
       <c r="F31">
@@ -1220,12 +1231,12 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="C32" t="s">
-        <v>108</v>
-      </c>
-      <c r="E32" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>134</v>
       </c>
       <c r="F32">
@@ -1234,12 +1245,12 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="E33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>134</v>
       </c>
       <c r="F33">
@@ -1248,12 +1259,12 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C34" t="s">
-        <v>119</v>
-      </c>
-      <c r="E34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>134</v>
       </c>
       <c r="F34">
@@ -1262,12 +1273,12 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C35" t="s">
-        <v>25</v>
-      </c>
-      <c r="E35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>134</v>
       </c>
       <c r="F35">
@@ -1276,12 +1287,12 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="C36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" t="s">
+        <v>119</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>134</v>
       </c>
       <c r="F36">
@@ -1290,12 +1301,12 @@
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C37" t="s">
-        <v>22</v>
-      </c>
-      <c r="E37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>134</v>
       </c>
       <c r="F37">
@@ -1304,12 +1315,12 @@
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>128</v>
+        <v>24</v>
       </c>
       <c r="C38" t="s">
-        <v>128</v>
-      </c>
-      <c r="E38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>134</v>
       </c>
       <c r="F38">
@@ -1318,12 +1329,12 @@
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="C39" t="s">
-        <v>129</v>
-      </c>
-      <c r="E39" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>134</v>
       </c>
       <c r="F39">
@@ -1332,12 +1343,12 @@
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C40" t="s">
-        <v>130</v>
-      </c>
-      <c r="E40" t="s">
+        <v>128</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>134</v>
       </c>
       <c r="F40">
@@ -1346,13 +1357,13 @@
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="C41" t="s">
-        <v>38</v>
-      </c>
-      <c r="E41" t="s">
-        <v>135</v>
+        <v>129</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="F41">
         <v>17</v>
@@ -1360,13 +1371,13 @@
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="C42" t="s">
-        <v>36</v>
-      </c>
-      <c r="E42" t="s">
-        <v>135</v>
+        <v>130</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="F42">
         <v>17</v>
@@ -1374,13 +1385,13 @@
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="C43" t="s">
-        <v>30</v>
-      </c>
-      <c r="E43" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="F43">
         <v>17</v>
@@ -1388,12 +1399,12 @@
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="C44" t="s">
-        <v>31</v>
-      </c>
-      <c r="E44" t="s">
+        <v>76</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>135</v>
       </c>
       <c r="F44">
@@ -1402,12 +1413,12 @@
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="C45" t="s">
-        <v>34</v>
-      </c>
-      <c r="E45" t="s">
+        <v>120</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>135</v>
       </c>
       <c r="F45">
@@ -1416,12 +1427,12 @@
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="C46" t="s">
-        <v>33</v>
-      </c>
-      <c r="E46" t="s">
+        <v>81</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>135</v>
       </c>
       <c r="F46">
@@ -1430,12 +1441,12 @@
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="C47" t="s">
-        <v>109</v>
-      </c>
-      <c r="E47" t="s">
+        <v>82</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>135</v>
       </c>
       <c r="F47">
@@ -1444,12 +1455,12 @@
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="C48" t="s">
-        <v>37</v>
-      </c>
-      <c r="E48" t="s">
+        <v>83</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>135</v>
       </c>
       <c r="F48">
@@ -1458,12 +1469,12 @@
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C49" t="s">
-        <v>28</v>
-      </c>
-      <c r="E49" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>135</v>
       </c>
       <c r="F49">
@@ -1472,12 +1483,12 @@
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="C50" t="s">
-        <v>29</v>
-      </c>
-      <c r="E50" t="s">
+        <v>84</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>135</v>
       </c>
       <c r="F50">
@@ -1486,13 +1497,13 @@
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C51" t="s">
-        <v>62</v>
-      </c>
-      <c r="E51" t="s">
-        <v>136</v>
+        <v>73</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="F51">
         <v>17</v>
@@ -1500,13 +1511,13 @@
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="C52" t="s">
-        <v>44</v>
-      </c>
-      <c r="E52" t="s">
-        <v>136</v>
+        <v>85</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="F52">
         <v>17</v>
@@ -1514,13 +1525,13 @@
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C53" t="s">
-        <v>42</v>
-      </c>
-      <c r="E53" t="s">
-        <v>136</v>
+        <v>86</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="F53">
         <v>17</v>
@@ -1528,13 +1539,13 @@
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C54" t="s">
-        <v>39</v>
-      </c>
-      <c r="E54" t="s">
-        <v>136</v>
+        <v>35</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="F54">
         <v>17</v>
@@ -1542,13 +1553,13 @@
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="C55" t="s">
-        <v>40</v>
-      </c>
-      <c r="E55" t="s">
-        <v>136</v>
+        <v>125</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="F55">
         <v>17</v>
@@ -1556,13 +1567,13 @@
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="C56" t="s">
-        <v>41</v>
-      </c>
-      <c r="E56" t="s">
-        <v>136</v>
+        <v>126</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="F56">
         <v>17</v>
@@ -1570,13 +1581,13 @@
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C57" t="s">
-        <v>64</v>
-      </c>
-      <c r="E57" t="s">
-        <v>136</v>
+        <v>65</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="F57">
         <v>17</v>
@@ -1584,13 +1595,13 @@
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>45</v>
-      </c>
-      <c r="E58" t="s">
-        <v>136</v>
+        <v>61</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="F58">
         <v>17</v>
@@ -1598,13 +1609,13 @@
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="C59" t="s">
-        <v>110</v>
-      </c>
-      <c r="E59" t="s">
-        <v>136</v>
+        <v>87</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="F59">
         <v>17</v>
@@ -1612,13 +1623,13 @@
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="C60" t="s">
-        <v>43</v>
-      </c>
-      <c r="E60" t="s">
-        <v>136</v>
+        <v>88</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="F60">
         <v>17</v>
@@ -1626,13 +1637,13 @@
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="C61" t="s">
-        <v>47</v>
-      </c>
-      <c r="E61" t="s">
-        <v>136</v>
+        <v>89</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="F61">
         <v>17</v>
@@ -1640,13 +1651,13 @@
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="C62" t="s">
-        <v>63</v>
-      </c>
-      <c r="E62" t="s">
-        <v>136</v>
+        <v>10</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="F62">
         <v>17</v>
@@ -1654,13 +1665,13 @@
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="C63" t="s">
-        <v>46</v>
-      </c>
-      <c r="E63" t="s">
-        <v>136</v>
+        <v>72</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="F63">
         <v>17</v>
@@ -1668,13 +1679,13 @@
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="C64" t="s">
-        <v>48</v>
-      </c>
-      <c r="E64" t="s">
-        <v>136</v>
+        <v>21</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="F64">
         <v>17</v>
@@ -1682,13 +1693,13 @@
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="C65" t="s">
-        <v>66</v>
-      </c>
-      <c r="E65" t="s">
-        <v>136</v>
+        <v>90</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="F65">
         <v>17</v>
@@ -1696,13 +1707,13 @@
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="C66" t="s">
-        <v>58</v>
-      </c>
-      <c r="E66" t="s">
-        <v>137</v>
+        <v>91</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="F66">
         <v>17</v>
@@ -1710,13 +1721,13 @@
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="C67" t="s">
-        <v>53</v>
-      </c>
-      <c r="E67" t="s">
-        <v>137</v>
+        <v>92</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="F67">
         <v>17</v>
@@ -1724,13 +1735,13 @@
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C68" t="s">
-        <v>67</v>
-      </c>
-      <c r="E68" t="s">
-        <v>137</v>
+        <v>75</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="F68">
         <v>17</v>
@@ -1738,13 +1749,13 @@
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="C69" t="s">
-        <v>51</v>
-      </c>
-      <c r="E69" t="s">
-        <v>137</v>
+        <v>74</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="F69">
         <v>17</v>
@@ -1752,13 +1763,13 @@
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="C70" t="s">
-        <v>56</v>
-      </c>
-      <c r="E70" t="s">
-        <v>137</v>
+        <v>93</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="F70">
         <v>17</v>
@@ -1766,13 +1777,13 @@
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="C71" t="s">
-        <v>111</v>
-      </c>
-      <c r="E71" t="s">
-        <v>137</v>
+        <v>94</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="F71">
         <v>17</v>
@@ -1780,13 +1791,13 @@
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="C72" t="s">
-        <v>50</v>
-      </c>
-      <c r="E72" t="s">
-        <v>137</v>
+        <v>95</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="F72">
         <v>17</v>
@@ -1794,13 +1805,13 @@
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="C73" t="s">
-        <v>122</v>
-      </c>
-      <c r="E73" t="s">
-        <v>137</v>
+        <v>96</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="F73">
         <v>17</v>
@@ -1808,13 +1819,13 @@
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="C74" t="s">
-        <v>57</v>
-      </c>
-      <c r="E74" t="s">
-        <v>137</v>
+        <v>97</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="F74">
         <v>17</v>
@@ -1822,13 +1833,13 @@
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="C75" t="s">
-        <v>79</v>
-      </c>
-      <c r="E75" t="s">
-        <v>137</v>
+        <v>98</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="F75">
         <v>17</v>
@@ -1836,13 +1847,13 @@
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C76" t="s">
-        <v>49</v>
-      </c>
-      <c r="E76" t="s">
-        <v>137</v>
+        <v>59</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="F76">
         <v>17</v>
@@ -1850,13 +1861,13 @@
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="C77" t="s">
-        <v>131</v>
-      </c>
-      <c r="E77" t="s">
-        <v>137</v>
+        <v>60</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="F77">
         <v>17</v>
@@ -1864,13 +1875,13 @@
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="C78" t="s">
-        <v>68</v>
-      </c>
-      <c r="E78" t="s">
-        <v>137</v>
+        <v>99</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="F78">
         <v>17</v>
@@ -1878,13 +1889,13 @@
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="C79" t="s">
-        <v>69</v>
-      </c>
-      <c r="E79" t="s">
-        <v>137</v>
+        <v>100</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="F79">
         <v>17</v>
@@ -1892,13 +1903,13 @@
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="C80" t="s">
-        <v>55</v>
-      </c>
-      <c r="E80" t="s">
-        <v>137</v>
+        <v>101</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="F80">
         <v>17</v>
@@ -1906,13 +1917,13 @@
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="C81" t="s">
-        <v>70</v>
-      </c>
-      <c r="E81" t="s">
-        <v>137</v>
+        <v>102</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="F81">
         <v>17</v>
@@ -1920,13 +1931,13 @@
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="C82" t="s">
-        <v>52</v>
-      </c>
-      <c r="E82" t="s">
-        <v>137</v>
+        <v>103</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="F82">
         <v>17</v>
@@ -1934,13 +1945,13 @@
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="C83" t="s">
-        <v>71</v>
-      </c>
-      <c r="E83" t="s">
-        <v>137</v>
+        <v>104</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="F83">
         <v>17</v>
@@ -1948,13 +1959,13 @@
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="C84" t="s">
-        <v>76</v>
-      </c>
-      <c r="E84">
-        <v>10</v>
+        <v>38</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="F84">
         <v>17</v>
@@ -1962,13 +1973,13 @@
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="C85" t="s">
-        <v>120</v>
-      </c>
-      <c r="E85">
-        <v>10</v>
+        <v>36</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="F85">
         <v>17</v>
@@ -1976,13 +1987,13 @@
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="C86" t="s">
-        <v>81</v>
-      </c>
-      <c r="E86">
-        <v>10</v>
+        <v>30</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="F86">
         <v>17</v>
@@ -1990,13 +2001,13 @@
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="C87" t="s">
-        <v>82</v>
-      </c>
-      <c r="E87">
-        <v>10</v>
+        <v>31</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="F87">
         <v>17</v>
@@ -2004,13 +2015,13 @@
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="C88" t="s">
-        <v>83</v>
-      </c>
-      <c r="E88">
-        <v>10</v>
+        <v>34</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="F88">
         <v>17</v>
@@ -2018,13 +2029,13 @@
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C89" t="s">
-        <v>32</v>
-      </c>
-      <c r="E89">
-        <v>10</v>
+        <v>33</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="F89">
         <v>17</v>
@@ -2032,13 +2043,13 @@
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="C90" t="s">
-        <v>84</v>
-      </c>
-      <c r="E90">
-        <v>10</v>
+        <v>109</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="F90">
         <v>17</v>
@@ -2046,13 +2057,13 @@
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="C91" t="s">
-        <v>73</v>
-      </c>
-      <c r="E91">
-        <v>10</v>
+        <v>37</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="F91">
         <v>17</v>
@@ -2060,13 +2071,13 @@
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="C92" t="s">
-        <v>85</v>
-      </c>
-      <c r="E92">
-        <v>10</v>
+        <v>28</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="F92">
         <v>17</v>
@@ -2074,13 +2085,13 @@
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="C93" t="s">
-        <v>86</v>
-      </c>
-      <c r="E93">
-        <v>10</v>
+        <v>29</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="F93">
         <v>17</v>
@@ -2088,13 +2099,13 @@
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="C94" t="s">
-        <v>35</v>
-      </c>
-      <c r="E94">
-        <v>10</v>
+        <v>62</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F94">
         <v>17</v>
@@ -2102,13 +2113,13 @@
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="C95" t="s">
-        <v>125</v>
-      </c>
-      <c r="E95">
-        <v>10</v>
+        <v>44</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F95">
         <v>17</v>
@@ -2116,13 +2127,13 @@
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="C96" t="s">
-        <v>126</v>
-      </c>
-      <c r="E96">
-        <v>10</v>
+        <v>42</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F96">
         <v>17</v>
@@ -2130,13 +2141,13 @@
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="C97" t="s">
-        <v>65</v>
-      </c>
-      <c r="E97">
-        <v>10</v>
+        <v>39</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F97">
         <v>17</v>
@@ -2144,13 +2155,13 @@
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C98" t="s">
-        <v>61</v>
-      </c>
-      <c r="E98">
-        <v>10</v>
+        <v>40</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F98">
         <v>17</v>
@@ -2158,13 +2169,13 @@
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="C99" t="s">
-        <v>87</v>
-      </c>
-      <c r="E99">
-        <v>10</v>
+        <v>41</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F99">
         <v>17</v>
@@ -2172,13 +2183,13 @@
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="C100" t="s">
-        <v>88</v>
-      </c>
-      <c r="E100">
-        <v>10</v>
+        <v>64</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F100">
         <v>17</v>
@@ -2186,13 +2197,13 @@
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="C101" t="s">
-        <v>89</v>
-      </c>
-      <c r="E101">
-        <v>10</v>
+        <v>45</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F101">
         <v>17</v>
@@ -2200,13 +2211,13 @@
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="C102" t="s">
-        <v>10</v>
-      </c>
-      <c r="E102">
-        <v>10</v>
+        <v>110</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F102">
         <v>17</v>
@@ -2214,13 +2225,13 @@
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="C103" t="s">
-        <v>72</v>
-      </c>
-      <c r="E103">
-        <v>10</v>
+        <v>43</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F103">
         <v>17</v>
@@ -2228,13 +2239,13 @@
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C104" t="s">
-        <v>21</v>
-      </c>
-      <c r="E104">
-        <v>10</v>
+        <v>47</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F104">
         <v>17</v>
@@ -2242,13 +2253,13 @@
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="C105" t="s">
-        <v>90</v>
-      </c>
-      <c r="E105">
-        <v>10</v>
+        <v>63</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F105">
         <v>17</v>
@@ -2256,13 +2267,13 @@
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="C106" t="s">
-        <v>91</v>
-      </c>
-      <c r="E106">
-        <v>10</v>
+        <v>46</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F106">
         <v>17</v>
@@ -2270,13 +2281,13 @@
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="C107" t="s">
-        <v>92</v>
-      </c>
-      <c r="E107">
-        <v>10</v>
+        <v>48</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F107">
         <v>17</v>
@@ -2284,13 +2295,13 @@
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C108" t="s">
-        <v>75</v>
-      </c>
-      <c r="E108">
-        <v>10</v>
+        <v>66</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F108">
         <v>17</v>
@@ -2298,13 +2309,13 @@
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C109" t="s">
-        <v>74</v>
-      </c>
-      <c r="E109">
-        <v>10</v>
+        <v>58</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="F109">
         <v>17</v>
@@ -2312,13 +2323,13 @@
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="C110" t="s">
-        <v>93</v>
-      </c>
-      <c r="E110">
-        <v>10</v>
+        <v>53</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="F110">
         <v>17</v>
@@ -2326,13 +2337,13 @@
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="C111" t="s">
-        <v>94</v>
-      </c>
-      <c r="E111">
-        <v>10</v>
+        <v>67</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="F111">
         <v>17</v>
@@ -2340,13 +2351,13 @@
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="C112" t="s">
-        <v>95</v>
-      </c>
-      <c r="E112">
-        <v>10</v>
+        <v>51</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="F112">
         <v>17</v>
@@ -2354,13 +2365,13 @@
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="C113" t="s">
-        <v>96</v>
-      </c>
-      <c r="E113">
-        <v>10</v>
+        <v>56</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="F113">
         <v>17</v>
@@ -2368,13 +2379,13 @@
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="C114" t="s">
-        <v>97</v>
-      </c>
-      <c r="E114">
-        <v>10</v>
+        <v>111</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="F114">
         <v>17</v>
@@ -2382,13 +2393,13 @@
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="C115" t="s">
-        <v>98</v>
-      </c>
-      <c r="E115">
-        <v>10</v>
+        <v>50</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="F115">
         <v>17</v>
@@ -2396,13 +2407,13 @@
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="C116" t="s">
-        <v>59</v>
-      </c>
-      <c r="E116">
-        <v>10</v>
+        <v>122</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="F116">
         <v>17</v>
@@ -2410,13 +2421,13 @@
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C117" t="s">
-        <v>60</v>
-      </c>
-      <c r="E117">
-        <v>10</v>
+        <v>57</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="F117">
         <v>17</v>
@@ -2424,13 +2435,13 @@
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="C118" t="s">
-        <v>99</v>
-      </c>
-      <c r="E118">
-        <v>10</v>
+        <v>79</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="F118">
         <v>17</v>
@@ -2438,13 +2449,13 @@
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="C119" t="s">
-        <v>100</v>
-      </c>
-      <c r="E119">
-        <v>10</v>
+        <v>49</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="F119">
         <v>17</v>
@@ -2452,13 +2463,13 @@
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="C120" t="s">
-        <v>101</v>
-      </c>
-      <c r="E120">
-        <v>10</v>
+        <v>131</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="F120">
         <v>17</v>
@@ -2466,13 +2477,13 @@
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="C121" t="s">
-        <v>102</v>
-      </c>
-      <c r="E121">
-        <v>10</v>
+        <v>68</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="F121">
         <v>17</v>
@@ -2480,13 +2491,13 @@
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="C122" t="s">
-        <v>103</v>
-      </c>
-      <c r="E122">
-        <v>10</v>
+        <v>69</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="F122">
         <v>17</v>
@@ -2494,13 +2505,13 @@
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="C123" t="s">
-        <v>104</v>
-      </c>
-      <c r="E123">
-        <v>10</v>
+        <v>55</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="F123">
         <v>17</v>
@@ -2508,12 +2519,12 @@
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C124" t="s">
-        <v>54</v>
-      </c>
-      <c r="E124" t="s">
+        <v>70</v>
+      </c>
+      <c r="E124" s="1" t="s">
         <v>137</v>
       </c>
       <c r="F124">
@@ -2522,21 +2533,63 @@
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="C125" t="s">
-        <v>17</v>
-      </c>
-      <c r="E125" t="s">
-        <v>133</v>
+        <v>52</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="F125">
         <v>17</v>
       </c>
     </row>
+    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>71</v>
+      </c>
+      <c r="C126" t="s">
+        <v>71</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F126">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>54</v>
+      </c>
+      <c r="C127" t="s">
+        <v>54</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F127">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>140</v>
+      </c>
+      <c r="C128" t="s">
+        <v>140</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F128">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:H123">
-    <sortCondition ref="B2:B123"/>
+  <sortState ref="A2:H127">
+    <sortCondition ref="E2:E127"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/lib/tasks/courses.xlsx
+++ b/lib/tasks/courses.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="142">
   <si>
     <t>name</t>
   </si>
@@ -447,6 +447,9 @@
   </si>
   <si>
     <t>HSENGT01</t>
+  </si>
+  <si>
+    <t>MSENGT01</t>
   </si>
 </sst>
 </file>
@@ -766,10 +769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H128"/>
+  <dimension ref="A1:H129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E129" sqref="E129"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2587,6 +2590,20 @@
         <v>17</v>
       </c>
     </row>
+    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>141</v>
+      </c>
+      <c r="C129" t="s">
+        <v>141</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F129">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:H127">
     <sortCondition ref="E2:E127"/>
